--- a/Schedule_Timeline.xlsx
+++ b/Schedule_Timeline.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Github\system_programming\main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Google_Drive\Academic\UWindsor\Course\COMP2560_System_Programming\F2021_Hossein_Fani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D44FAA3-B111-4459-8B55-D400887225D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA13C79-35CB-4A92-8E12-C21A12E94824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{55BA964F-EA88-48C3-92A6-DF32EF8A2B7C}"/>
   </bookViews>
@@ -513,7 +513,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Lab #56
+      <t xml:space="preserve">Lab #57
 Instructor: </t>
     </r>
     <r>
@@ -524,7 +524,7 @@
         <rFont val="Calibri Light"/>
         <family val="2"/>
       </rPr>
-      <t>TBD</t>
+      <t>Yogeswar</t>
     </r>
     <r>
       <rPr>
@@ -549,7 +549,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Lab #57
+      <t xml:space="preserve">Lab #56
 Instructor: </t>
     </r>
     <r>
@@ -560,7 +560,7 @@
         <rFont val="Calibri Light"/>
         <family val="2"/>
       </rPr>
-      <t>TBD</t>
+      <t>Yogeswar</t>
     </r>
     <r>
       <rPr>
@@ -1179,31 +1179,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1227,22 +1215,34 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1759,7 +1759,7 @@
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D13"/>
+      <selection activeCell="G14" sqref="G14:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1779,17 +1779,17 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65"/>
+      <c r="C1" s="61"/>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="65"/>
+      <c r="F1" s="61"/>
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1801,437 +1801,437 @@
       <c r="A2" s="8">
         <v>0.16666666666666666</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="68" t="s">
+      <c r="C2" s="63"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="73"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="54"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="73"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>0.40972222222222227</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="73"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="54"/>
     </row>
     <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>0.41666666666666635</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="66" t="s">
+      <c r="C5" s="62"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="73"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>0.42361111111111077</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="73"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="54"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>0.43055555555555519</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="73"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="54"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>0.43749999999999961</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="73"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="54"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>0.44444444444444403</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="73"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>0.45138888888888845</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="73"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="54"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>0.45833333333333287</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="73"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>0.46527777777777729</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="73"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>0.47222222222222171</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="74"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="55"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>0.47916666666666613</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="75" t="s">
+      <c r="F14" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="62" t="s">
+      <c r="G14" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="75" t="s">
         <v>91</v>
-      </c>
-      <c r="H14" s="62" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>0.48611111111111055</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>0.49305555555555497</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>0.49999999999999939</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>0.50694444444444386</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>0.51388888888888828</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>0.5208333333333327</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>0.52777777777777712</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>0.53472222222222221</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="63" t="s">
+      <c r="C23" s="73"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="60"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="57"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="71"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>0.54861111111111105</v>
       </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="58"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="68"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>0.55555555555555558</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="58"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="68"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>0.5625</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="58"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="68"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>0.56944444444444442</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="58"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="68"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>0.57638888888888895</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="58"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="68"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="58"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="68"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>0.59027777777777779</v>
       </c>
-      <c r="B30" s="63"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="58"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="68"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>0.59722222222222221</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="58"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="68"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="58"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>0.61111111111111105</v>
       </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="58"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="68"/>
     </row>
     <row r="34" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>0.61805555555555558</v>
       </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="58"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="68"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>0.625</v>
       </c>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="58"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="68"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
@@ -2319,23 +2319,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="H2:H13"/>
-    <mergeCell ref="G2:G13"/>
-    <mergeCell ref="F14:F20"/>
-    <mergeCell ref="C14:C20"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="E14:E22"/>
-    <mergeCell ref="D14:D22"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:C13"/>
-    <mergeCell ref="E5:F13"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D2:D13"/>
     <mergeCell ref="B32:C35"/>
     <mergeCell ref="E32:F35"/>
     <mergeCell ref="D23:D35"/>
@@ -2347,6 +2330,23 @@
     <mergeCell ref="H14:H22"/>
     <mergeCell ref="B23:B31"/>
     <mergeCell ref="E23:E31"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:C13"/>
+    <mergeCell ref="E5:F13"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D2:D13"/>
+    <mergeCell ref="H2:H13"/>
+    <mergeCell ref="G2:G13"/>
+    <mergeCell ref="F14:F20"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="E14:E22"/>
+    <mergeCell ref="D14:D22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" orientation="portrait" r:id="rId1"/>
@@ -7142,21 +7142,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AC7F0C6D55CB5A4490D178421AE4B336" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="263ae7a6a0a03f1b5b297d2da8d6f5e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a2d4f07-4676-40ee-8677-4ceb2ba149bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04e1809e0b99a9143ec48f12fd2648c1" ns2:_="">
     <xsd:import namespace="2a2d4f07-4676-40ee-8677-4ceb2ba149bb"/>
@@ -7302,10 +7287,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AEA02DF-6628-4093-9D79-175318B141D0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CFE56AC-637C-462B-9A05-E6644F0E3380}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2a2d4f07-4676-40ee-8677-4ceb2ba149bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7327,19 +7337,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CFE56AC-637C-462B-9A05-E6644F0E3380}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AEA02DF-6628-4093-9D79-175318B141D0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2a2d4f07-4676-40ee-8677-4ceb2ba149bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>